--- a/src/assets/recursos/ese_definiciones.xlsx
+++ b/src/assets/recursos/ese_definiciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/2-AREAS/PROYECTO DE GRADO-L/app_pdg/src/recursos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/2-AREAS/PROYECTO DE GRADO-L/app_pdg/src/assets/recursos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD894EBF-5836-4047-B1E1-0078C08EF691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEB21DF-812F-964D-AA8D-D4150BE87B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{C093BBD6-DD43-9E48-8E1D-6FB58EA831FA}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{C093BBD6-DD43-9E48-8E1D-6FB58EA831FA}"/>
   </bookViews>
   <sheets>
     <sheet name="ecosistemas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>categoria</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Flujo de agua a través de los ecosistemas en sus formas sólida, líquida o gaseosa.</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -730,165 +733,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C661E3C6-F044-B74D-9211-CE07AF2048C7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -901,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09CD7E-3D1D-3647-96CB-86866A0BC9EE}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
